--- a/biology/Médecine/Mode_de_ventilation_mécanique/Mode_de_ventilation_mécanique.xlsx
+++ b/biology/Médecine/Mode_de_ventilation_mécanique/Mode_de_ventilation_mécanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mode_de_ventilation_m%C3%A9canique</t>
+          <t>Mode_de_ventilation_mécanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mode de ventilation mécanique, ou mode ventilatoire, est un aspect majeur de la ventilation mécanique en médecine. Le mode fait référence a la méthode d'assistance inspiratoire délivrée par le ventilateur. Généralement, le choix du mode ventilatoire depend de la familiarité du clinicien vis-a-vis du-dit mode et des preferences institutionnelles concernant le choix du fabricant ou du modèle de ventilateur, étant donne qu'il existe peu de preuves dans la littérature indiquant que le mode affecte le prognostic du patient. 
-Il existe trois principales catégories : la ventilation en volume contrôlé, la ventilation en pression contrôlée et la ventilation spontanée[1]. 
-Les nomenclatures n’étant pas standardisées, noms et abréviations varient d'un fabricant à l'autre ou d'un pays à l'autre, même si cela tend à s'harmoniser depuis les années 2010[2],[3]. Récemment, dans les pays anglo-saxons, il est d'usage d’écrire le type de contrôle (volume, pression ou spontanée) suivi d'un tiret puis du mode proprement-dit (PC-IMV ou VC-MMV ou SPN-CPAP/PS)[4]. En raison de l'uniformisation des pratiques médicales au niveau international, cet article détaille les modes rencontrés dans les pays francophones ainsi que leur équivalent en anglais.
+Il existe trois principales catégories : la ventilation en volume contrôlé, la ventilation en pression contrôlée et la ventilation spontanée. 
+Les nomenclatures n’étant pas standardisées, noms et abréviations varient d'un fabricant à l'autre ou d'un pays à l'autre, même si cela tend à s'harmoniser depuis les années 2010,. Récemment, dans les pays anglo-saxons, il est d'usage d’écrire le type de contrôle (volume, pression ou spontanée) suivi d'un tiret puis du mode proprement-dit (PC-IMV ou VC-MMV ou SPN-CPAP/PS). En raison de l'uniformisation des pratiques médicales au niveau international, cet article détaille les modes rencontrés dans les pays francophones ainsi que leur équivalent en anglais.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mode_de_ventilation_m%C3%A9canique</t>
+          <t>Mode_de_ventilation_mécanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,93 @@
           <t>Taxonomie des modes ventilatoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie est un système de classification logique basé sur les « dix maximes » utilisées pour le fonctionnement des ventilateurs[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La taxonomie est un système de classification logique basé sur les « dix maximes » utilisées pour le fonctionnement des ventilateurs,.
 Pour résumer, un mode ventilatoire est classifié selon quatre principaux paramètres :
 la variable du contrôle (pression ou volume) ;
 la séquence respiratoire (ventilation contrôlée, intermittente ou spontanée) ;
 le modèle de respiration primaire (pour la ventilation contrôlée et spontanée) ;
-le modèle de respiration secondaire (pour la ventilation intermittente).
-Contrôle
-Le ventilateur assiste une respiration en contrôlant soit le volume soit la pression d'air (ou de mélange gazeux) insufflé. Une respiration est la somme d'un cycle de flux d'air positif (inspiration) et d'un flux négatif (expiration) défini selon une courbe débit/temps.
-Un modèle mathématique simple et unique est utilisé pour mettre en relation volume et pression, connu comme étant l'équation de mouvement pour le système respiratoire passif[5] : Pression = (élastance x volume) + (résistance x débit).
+le modèle de respiration secondaire (pour la ventilation intermittente).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie des modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Contrôle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le ventilateur assiste une respiration en contrôlant soit le volume soit la pression d'air (ou de mélange gazeux) insufflé. Une respiration est la somme d'un cycle de flux d'air positif (inspiration) et d'un flux négatif (expiration) défini selon une courbe débit/temps.
+Un modèle mathématique simple et unique est utilisé pour mettre en relation volume et pression, connu comme étant l'équation de mouvement pour le système respiratoire passif : Pression = (élastance x volume) + (résistance x débit).
 Les trois variables de contrôle sont :
 Le volume contrôlé (VC) signifie que le volume et le débit sont pré-réglés avant l'inspiration. Le côté droit de l'équation du mouvement reste donc inchangé, alors que la pression va changer avec l'élastance et la résistance.
 La pression contrôlée (PC) signifie que la pression inspiratoire est pré-réglée, soit comme une valeur constante soit proportionnellement à l'effort inspiratoire du patient. Sur l'équation de mouvement, le cote gauche reste constant alors que volume et débit changent avec l'élastance et la résistance.
-Le temps contrôlé (TC) est un troisième mode, rarement utilisé ou combiné avec l'un des précédents, où aucune des variables principales (pression, volume ou débit) ne sont paramétrées. Seuls les temps inspiratoires et expiratoires sont pré-réglés.
-Séquence
-Une « sequence respiratoire » est un cycle particulier de respirations spontanées et/ou obligatoires[5]. 
+Le temps contrôlé (TC) est un troisième mode, rarement utilisé ou combiné avec l'un des précédents, où aucune des variables principales (pression, volume ou débit) ne sont paramétrées. Seuls les temps inspiratoires et expiratoires sont pré-réglés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie des modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séquence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une « sequence respiratoire » est un cycle particulier de respirations spontanées et/ou obligatoires. 
 Une respiration est spontanée lorsque le patient déclenche (trigge) et effectue la respiration jusqu'à la fin de l'expiration. Elle peut avoir lieu pendant une respiration obligatoire (par exemple avec la ventilation spontanée en pression positive variable) et peut être « assistée » ou « non-assistée ».
 Une respiration est assistée si le ventilateur remplace complètement ou partiellement le travail respiratoire du patient. En termes plus techniques, une respiration assistée est définie comme une respiration pour laquelle la pression des voies aériennes dépasse la pression de base au cours de l'inspiration.
 Une respiration non-assistée est une respiration pour laquelle le ventilateur dispense simplement le flux demandé par le patient et où la pression reste constante au cours de la respiration.
@@ -537,9 +619,43 @@
 Il existe trois sequences respiratoires : la ventilation contrôlée, la ventilation intermittente et la ventilation spontanée. 
 En ventilation contrôlée, aucune respiration spontanée n'est possible entre les respirations obligatoires.
 En ventilation intermittente, des respirations spontanées peuvent être déclenchées entre les respirations obligatoires.
-En ventilation spontanée, toutes les respirations sont spontanées.
-Modèle
-Il existe cinq modèles principaux, résumés ainsi par leur nomenclature anglaise[5] : 
+En ventilation spontanée, toutes les respirations sont spontanées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie des modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Modèle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe cinq modèles principaux, résumés ainsi par leur nomenclature anglaise : 
 VC-CMV (VC - Controlled mechanical ventilation) : ventilation en volume contrôlé ;
 VC-IMV (VC - Intermittent mechanical ventilation) : ventilation en volume intermittent ;
 PC-CMV (PC - Controlled mechanical ventilation) : ventilation en pression contrôlée ;
@@ -552,61 +668,402 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mode_de_ventilation_m%C3%A9canique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Modes ventilatoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mode contrôlé
 Mode intermittent
 Mode spontané
-Modes volumétriques
-La ventilation volumétrique ou ventilation en volume contrôlé (VVC), en anglais : volume control (VC), le respirateur délivre un débit contrôlé (soit fixe ou décroissant) au cours du temps inspiratoire.
-Ventilation contrôlée (VC)
-Mode : contrôlé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Modes volumétriques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ventilation volumétrique ou ventilation en volume contrôlé (VVC), en anglais : volume control (VC), le respirateur délivre un débit contrôlé (soit fixe ou décroissant) au cours du temps inspiratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Modes volumétriques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ventilation contrôlée (VC)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mode : contrôlé.
 Pré-réglages : f (fréquence), Vt (volume total)
 Respirations obligatoires déclenchées uniquement par le ventilateur selon une fréquence (f) pré-réglée pour un volume total (Vt) insufflé constant et par conséquent un volume minute (VM) prévisible.
-Ventilation assistée contrôlée intermittente (VACI)
-C'est un mode hybride. Les cycles sont soit conformes à des cycles contrôlés soit conformes à des cycles spontanés. Prôné comme mode de sevrage et longtemps utilisé comme tel il a beaucoup perdu en 2008 de ses défenseurs. Il offre pour certains un mode de sevrage avec un minimum de ventilation garanti.
-Modes barométriques
-Dans ce type de ventilation, le respirateur applique une pression (consigne déterminée par le clinicien) sans égard au volume que cela fait entrer dans les poumons. Ce volume est donc déterminé par les caractéristiques mécaniques du poumon qui sont la résistance mécanique et la compliance pulmonaire. Il est indispensable de bien régler ses alarmes de volume pour s'assurer que le patient soit suffisamment ventilé.
-Modes contrôlés
-Modes spontanés
-Ventilation spontanée (VS) avec aide inspiratoire (VS+AI)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Modes volumétriques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ventilation assistée contrôlée intermittente (VACI)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un mode hybride. Les cycles sont soit conformes à des cycles contrôlés soit conformes à des cycles spontanés. Prôné comme mode de sevrage et longtemps utilisé comme tel il a beaucoup perdu en 2008 de ses défenseurs. Il offre pour certains un mode de sevrage avec un minimum de ventilation garanti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Modes barométriques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce type de ventilation, le respirateur applique une pression (consigne déterminée par le clinicien) sans égard au volume que cela fait entrer dans les poumons. Ce volume est donc déterminé par les caractéristiques mécaniques du poumon qui sont la résistance mécanique et la compliance pulmonaire. Il est indispensable de bien régler ses alarmes de volume pour s'assurer que le patient soit suffisamment ventilé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Modes barométriques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Modes spontanés</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ventilation spontanée (VS) avec aide inspiratoire (VS+AI)
 On règle FiO2 et PEEP mais on revanche on n'est pas maître de la ventilation alvéolaire du patient. Aucune fréquence n'est réglée dans ce mode, le respirateur se contente pressuriser le circuit avec une aide inspiratoire à chaque fois que le patient initie une respiration. Il faut accorder un soin tout particulier aux réglages de trigger. Le trigger inspiratoire, au mieux en débit, est réglé au minimum possible sans que l'on observe d'auto déclenchements. Le trigger expiratoire est le plus souvent paramétré à 25 % du débit inspiratoire maximal. Parfois on peut régler un temps inspiratoire qui limite l'inspiration surtout en cas de fuites. la durée du temps expiratoire dépend exclusivement du patient (et du niveau de trigger).
-Certains appellent la VSAI « la ventilation à deux niveaux de pression » par opposition à la CPAP facilement réalisable avec un dispositif de Boussignac. Toutefois cette terminologie introduit une confusion avec le mode BIPAP de Drager qui est une ventilation contrôlée.
-Modes mixtes ou hybrides
-Volume contrôlé à régulation de pression (VCRP)
-La VCRP est un mode de ventilation auto-régulé dérivé de la pression contrôlée où la pression est ajustée entre chaque respiration en fonction d'un volume cible (réglé par le clinicien). La pression nécessaire pour atteindre le volume visé est calculée par le respirateur à partir du volume expiré moyen des dernières respirations et de la pression qui avait été utilisée. Souvent présenté comme un hybride entre le volumétrique et la pression contrôlée, ce mode à l'avantage d'assurer une ventilation minute minimale (comme la ventilation volumétrique) tout en utilisant la pression nécessaire et suffisante pour le volume courant cible, dans le temps inspiratoire imparti. Il assure également un confort appréciable pour le patient.
-Ventilation contrôlée en boucle fermée
-Les réglages de ventilation sont historiquement effectués par le clinicien. La réponse des patients à la ventilation mécanique peut changer rapidement et nécessiter un réajustement des paramètres du ventilateur. Cependant, les cliniciens ne peuvent pas être continuellement au lit du patient. Pour cette raison, un ajustement automatique des paramètres semble justifié. En raison de la nature sensible de la procédure, l'automatisation n'a pas été introduite d'un seul coup mais par étapes et continue d'évoluer. Les premières tentatives en boucle fermée se sont concentrées sur la ventilation minute (MMV), puis sur la fréquence respiratoire (MRR) et sur le volume courant (garantie de volume). Avec l'avènement de la mesure expiratoire du CO2, un contrôle expérimental en boucle fermée des gaz sanguins a été essayé[17], mais il n'est entré en pratique clinique que récemment.Les modes de ventilation contrôlée en boucle fermée sont devenus disponibles sous diverses formes (voir le tableau ci-dessus) et joueront un rôle important à l'avenir[18].
-Autres modes de ventilation
-Continuous positive airway pressure (CPAP)
-En pratique le terme de CPAP désigne deux choses : d'un côté, on peut le réaliser sur un respirateur traditionnel on choisissant un mode VSAI et en réglant le niveau d'aide (AI) à 0 ; d'un autre côté il existe un dispositif appelé « CPAP de Boussignac » nettement moins encombrant qu'un respirateur. La Boussignac a connu un essor important dans la prise en charge préhospitalière des OAP notamment du fait de son faible encombrement et de sa facilité d'utilisation.
-Ventilation oscillatoire à haute fréquence
-Ce type de ventilation se fait à une fréquence de 2 à 5 Hz (soit 120 à 300/min) avec des volumes courants très faibles. Elle permettrait d'éviter les dommages aux alvéoles en permettant de les garder en permanence ouvertes.
+Certains appellent la VSAI « la ventilation à deux niveaux de pression » par opposition à la CPAP facilement réalisable avec un dispositif de Boussignac. Toutefois cette terminologie introduit une confusion avec le mode BIPAP de Drager qui est une ventilation contrôlée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Modes mixtes ou hybrides</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Volume contrôlé à régulation de pression (VCRP)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La VCRP est un mode de ventilation auto-régulé dérivé de la pression contrôlée où la pression est ajustée entre chaque respiration en fonction d'un volume cible (réglé par le clinicien). La pression nécessaire pour atteindre le volume visé est calculée par le respirateur à partir du volume expiré moyen des dernières respirations et de la pression qui avait été utilisée. Souvent présenté comme un hybride entre le volumétrique et la pression contrôlée, ce mode à l'avantage d'assurer une ventilation minute minimale (comme la ventilation volumétrique) tout en utilisant la pression nécessaire et suffisante pour le volume courant cible, dans le temps inspiratoire imparti. Il assure également un confort appréciable pour le patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Modes mixtes ou hybrides</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ventilation contrôlée en boucle fermée</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les réglages de ventilation sont historiquement effectués par le clinicien. La réponse des patients à la ventilation mécanique peut changer rapidement et nécessiter un réajustement des paramètres du ventilateur. Cependant, les cliniciens ne peuvent pas être continuellement au lit du patient. Pour cette raison, un ajustement automatique des paramètres semble justifié. En raison de la nature sensible de la procédure, l'automatisation n'a pas été introduite d'un seul coup mais par étapes et continue d'évoluer. Les premières tentatives en boucle fermée se sont concentrées sur la ventilation minute (MMV), puis sur la fréquence respiratoire (MRR) et sur le volume courant (garantie de volume). Avec l'avènement de la mesure expiratoire du CO2, un contrôle expérimental en boucle fermée des gaz sanguins a été essayé, mais il n'est entré en pratique clinique que récemment.Les modes de ventilation contrôlée en boucle fermée sont devenus disponibles sous diverses formes (voir le tableau ci-dessus) et joueront un rôle important à l'avenir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres modes de ventilation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Continuous positive airway pressure (CPAP)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En pratique le terme de CPAP désigne deux choses : d'un côté, on peut le réaliser sur un respirateur traditionnel on choisissant un mode VSAI et en réglant le niveau d'aide (AI) à 0 ; d'un autre côté il existe un dispositif appelé « CPAP de Boussignac » nettement moins encombrant qu'un respirateur. La Boussignac a connu un essor important dans la prise en charge préhospitalière des OAP notamment du fait de son faible encombrement et de sa facilité d'utilisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mode_de_ventilation_mécanique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mode_de_ventilation_m%C3%A9canique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Modes ventilatoires</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres modes de ventilation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ventilation oscillatoire à haute fréquence</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de ventilation se fait à une fréquence de 2 à 5 Hz (soit 120 à 300/min) avec des volumes courants très faibles. Elle permettrait d'éviter les dommages aux alvéoles en permettant de les garder en permanence ouvertes.
 </t>
         </is>
       </c>
